--- a/Result_14/Result_1/schedules.xlsx
+++ b/Result_14/Result_1/schedules.xlsx
@@ -598,9 +598,21 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>S3MD</t>
@@ -626,16 +638,8 @@
           <t>S3MD</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -744,29 +748,29 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -829,16 +833,8 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
@@ -978,13 +974,17 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
@@ -1341,8 +1341,16 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
@@ -1361,19 +1369,15 @@
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
@@ -1477,27 +1481,19 @@
           <t>Murray McLachlan</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>S4MD</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
           <t>S3MD</t>
@@ -1506,19 +1502,19 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -1528,12 +1524,12 @@
           <t>S4MD</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>S4MD</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>S4MD</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1545,9 +1541,17 @@
           <t>S4MD</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>S4MD</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1555,11 +1559,7 @@
           <t>Tanner Muggli</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>S4MD</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -1574,25 +1574,25 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>S3MD</t>
+          <t>S4MD</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1617,11 +1617,7 @@
           <t>S4MD</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>S4MD</t>
-        </is>
-      </c>
+      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1718,20 +1714,24 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
@@ -1755,7 +1755,11 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -1778,12 +1782,12 @@
         </is>
       </c>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>S4MD</t>
-        </is>
-      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr">
         <is>
           <t>S4MD</t>
@@ -1799,11 +1803,7 @@
           <t>S3MD</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
     </row>
@@ -2100,15 +2100,27 @@
           <t>S3MD</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
@@ -2116,19 +2128,11 @@
           <t>S3MD</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
@@ -2226,69 +2230,69 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>S4MD</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>S3MD</t>
+          <t>S4MD</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>S3MD</t>
+          <t>S4MD</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr"/>
+          <t>S4MD</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>S4MD</t>
+        </is>
+      </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>S3MD</t>
+          <t>S4MD</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>S3MD</t>
+          <t>S4MD</t>
         </is>
       </c>
     </row>
@@ -2317,16 +2321,8 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -2337,32 +2333,32 @@
           <t>S4MD</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>S4MD</t>
+        </is>
+      </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>S4MD</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>S4MD</t>
-        </is>
-      </c>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>S4MD</t>
+          <t>S3MD</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>S4MD</t>
+          <t>S3MD</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>S4MD</t>
+          <t>S3MD</t>
         </is>
       </c>
     </row>
@@ -2462,13 +2458,17 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
@@ -2496,11 +2496,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -2524,29 +2520,33 @@
           <t>S3MD</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>S4MD</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>S4MD</t>
+          <t>S3MD</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>S4MD</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
     </row>
@@ -2828,9 +2828,21 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>S3MD</t>
@@ -2841,37 +2853,29 @@
           <t>S3MD</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
           <t>S3MD</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
@@ -2969,48 +2973,44 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>S4MD</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>S4MD</t>
-        </is>
-      </c>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>S4MD</t>
+          <t>S3MD</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -3023,15 +3023,19 @@
           <t>S3MD</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>S4MD</t>
+          <t>S3MD</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>S4MD</t>
+          <t>S3MD</t>
         </is>
       </c>
     </row>
@@ -3060,16 +3064,8 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -3080,32 +3076,32 @@
           <t>S4MD</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>S4MD</t>
+        </is>
+      </c>
       <c r="Z6" t="inlineStr">
         <is>
           <t>S3MD</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>S3MD</t>
+          <t>S4MD</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>S3MD</t>
+          <t>S4MD</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>S3MD</t>
+          <t>S4MD</t>
         </is>
       </c>
     </row>
@@ -3205,14 +3201,18 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -3239,11 +3239,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -3267,14 +3263,22 @@
           <t>S3MD</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>S3MD</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>S3MD</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>S4MD</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>S4MD</t>
+        </is>
+      </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>S4MD</t>
@@ -3285,11 +3289,7 @@
           <t>S4MD</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>S4MD</t>
-        </is>
-      </c>
+      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
     </row>
